--- a/teachers.xlsx
+++ b/teachers.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12600"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>Teachers's Name</t>
   </si>
@@ -27,112 +40,542 @@
     <t xml:space="preserve">Room Number </t>
   </si>
   <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Subjects taught</t>
+  </si>
+  <si>
     <t xml:space="preserve">Period 1 Time </t>
   </si>
   <si>
+    <t xml:space="preserve">Period 1 Room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 2 Time </t>
+  </si>
+  <si>
+    <t>Period 2 Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 3 Time </t>
+  </si>
+  <si>
+    <t>Period 3 Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 4 Time </t>
+  </si>
+  <si>
+    <t>Period 4 Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 5 Time </t>
+  </si>
+  <si>
+    <t>Period 5 Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 6 Time </t>
+  </si>
+  <si>
+    <t>Period 6 Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 7 Time </t>
+  </si>
+  <si>
+    <t>Period 7 Room</t>
+  </si>
+  <si>
+    <t>Period 8 Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period 8 Room </t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
     <t>9:00 to 9:45</t>
   </si>
   <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 1 Room </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 2 Time </t>
-  </si>
-  <si>
-    <t>Period 2 Room</t>
-  </si>
-  <si>
     <t>9:45 to 10:30</t>
   </si>
   <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Subjects taught</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Physics</t>
+    <t>10:30 to 11:15</t>
+  </si>
+  <si>
+    <t>11:15 to 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 30 to 1:15 </t>
+  </si>
+  <si>
+    <t>1:15 to 2:00</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:45 to 3:30 </t>
   </si>
   <si>
     <t>Saleem</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>9:45 to 10:31</t>
+  </si>
+  <si>
+    <t>2:00 to 2:45</t>
+  </si>
+  <si>
     <t>Zaheer</t>
   </si>
   <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>9:45 to 10:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:45 to 3:31 </t>
+  </si>
+  <si>
     <t>Syed Aziz</t>
   </si>
   <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>9:45 to 10:33</t>
+  </si>
+  <si>
+    <t>2:00 to 2:46</t>
+  </si>
+  <si>
     <t>Salman</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>9:45 to 10:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:45 to 3:32 </t>
+  </si>
+  <si>
     <t>Ibrahim</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Chem</t>
-  </si>
-  <si>
-    <t>Bio</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Lio</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 3 Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 4 Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 5 Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period 6 Time </t>
-  </si>
-  <si>
-    <t>Period 3 Room</t>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>9:45 to 10:35</t>
+  </si>
+  <si>
+    <t>2:00 to 2:47</t>
+  </si>
+  <si>
+    <t>Ilyas</t>
+  </si>
+  <si>
+    <t>9:45 to 10:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:45 to 3:33 </t>
+  </si>
+  <si>
+    <t>Zeeshan</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>9:45 to 10:37</t>
+  </si>
+  <si>
+    <t>2:00 to 2:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,20 +583,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -444,35 +1179,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="A1:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="14.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="13.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="20.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="23.4259259259259" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="18.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="19.712962962963" customWidth="1"/>
+    <col min="11" max="11" width="20.4259259259259" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="20.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="16.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="17.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="14.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="15.8888888888889" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="16.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,14 +1225,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -501,239 +1244,563 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>9908334894</v>
       </c>
       <c r="C2" s="1">
-        <v>4601</v>
-      </c>
-      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="2">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7386810371</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2">
+        <v>11</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8885220759</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2">
+        <v>12</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9381650756</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4602</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4603</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>9515334894</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5601</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="2">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9515002942</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>13</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="2">
+        <v>14</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9550847586</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>99012312390</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6601</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>15</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>12</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="2">
+        <v>15</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8688939620</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
-        <v>1231231234</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7601</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2">
+        <v>16</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>11</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9849427961</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>1231244546</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9402</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15453465345</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="2">
+        <v>17</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -748,7 +1815,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -763,7 +1830,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -778,7 +1845,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -793,7 +1860,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -808,7 +1875,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -823,7 +1890,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -838,7 +1905,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -853,7 +1920,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -868,7 +1935,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -883,7 +1950,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -898,7 +1965,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -913,7 +1980,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -928,7 +1995,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -943,7 +2010,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -958,7 +2025,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -973,7 +2040,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -988,7 +2055,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1003,7 +2070,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1018,7 +2085,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1033,7 +2100,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1048,7 +2115,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1063,7 +2130,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1078,7 +2145,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1095,30 +2162,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>